--- a/docs/data/data-sad-cls.xlsx
+++ b/docs/data/data-sad-cls.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
   <si>
     <t>Rater No.</t>
   </si>
@@ -140,23 +140,35 @@
     <t>UN</t>
   </si>
   <si>
-    <t>LINORD</t>
+    <t>HB</t>
   </si>
   <si>
-    <t>LINCON</t>
+    <t>HB2</t>
   </si>
   <si>
-    <t>LOGORD</t>
+    <t>LIN2</t>
   </si>
   <si>
-    <t>LOGCON</t>
+    <t>LIN</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Fair</t>
+  </si>
+  <si>
+    <t>poor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,13 +200,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -221,24 +252,55 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -509,7 +571,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -519,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H901"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -549,16 +611,16 @@
         <v>37</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -24247,10 +24309,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -24259,7 +24321,7 @@
     <col min="2" max="2" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -24267,248 +24329,354 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="B10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="B17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="C31" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/docs/data/data-sad-cls.xlsx
+++ b/docs/data/data-sad-cls.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28705"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25915"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -24,102 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="15">
   <si>
     <t>Rater No.</t>
-  </si>
-  <si>
-    <t>Identity</t>
-  </si>
-  <si>
-    <t>Rachel Kreiss</t>
-  </si>
-  <si>
-    <t>Frank Hay</t>
-  </si>
-  <si>
-    <t>Julie Kikkert</t>
-  </si>
-  <si>
-    <t>Niloofar Vaghefi</t>
-  </si>
-  <si>
-    <t>Chase Croswell</t>
-  </si>
-  <si>
-    <t>Lori Koenick</t>
-  </si>
-  <si>
-    <t>Valpuri Solveno</t>
-  </si>
-  <si>
-    <t>Dave McUmber</t>
-  </si>
-  <si>
-    <t>Dahlia Wist</t>
-  </si>
-  <si>
-    <t>Katrin Ayers</t>
-  </si>
-  <si>
-    <t>Martha</t>
-  </si>
-  <si>
-    <t>Carol P</t>
-  </si>
-  <si>
-    <t>Adrienne G</t>
-  </si>
-  <si>
-    <t>Liz M</t>
-  </si>
-  <si>
-    <t>William W</t>
-  </si>
-  <si>
-    <t>Mariamma</t>
-  </si>
-  <si>
-    <t>Larissa O</t>
-  </si>
-  <si>
-    <t>Karen Luong</t>
-  </si>
-  <si>
-    <t>Greg (Chris's lab)</t>
-  </si>
-  <si>
-    <t>Masi - Seed Lab</t>
-  </si>
-  <si>
-    <t>Libby (Marc's Lab)</t>
-  </si>
-  <si>
-    <t>Carol Bowden</t>
-  </si>
-  <si>
-    <t>Breanne (Gadoury Lab)</t>
-  </si>
-  <si>
-    <t>Karen (NYS IPM)</t>
-  </si>
-  <si>
-    <t>John (Coop Extension)</t>
-  </si>
-  <si>
-    <t>David (Khan Lab)</t>
-  </si>
-  <si>
-    <t>Kerik</t>
-  </si>
-  <si>
-    <t>Cathy (Hort)</t>
-  </si>
-  <si>
-    <t>Mary Jean (Gadoury Lab)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kate </t>
   </si>
   <si>
     <t>Image</t>
@@ -208,24 +115,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -273,13 +168,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="19">
@@ -571,7 +464,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -581,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H901"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -599,28 +492,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -24050,10 +23943,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -24309,369 +24202,275 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14.1640625" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="B13" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" t="s">
         <v>11</v>
       </c>
-      <c r="C19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="B27" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="B29" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="B30" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" t="s">
-        <v>44</v>
+      <c r="B31" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
